--- a/기획서/기획서 v1.3.9/스타듀벨리 종합 DB v1.5.xlsx
+++ b/기획서/기획서 v1.3.9/스타듀벨리 종합 DB v1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_10\Documents\새 폴더\새 폴더\기획서\기획서 v1.3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D54A8F-9EF0-433A-B6F9-0BD685DFB932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590A180-BDCB-4127-83F0-D9023DDA4645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2623,93 +2623,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2821,6 +2734,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2848,14 +2770,92 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4695,7 +4695,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4711,35 +4711,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:11" s="156" customFormat="1" ht="19.5">
-      <c r="B2" s="153" t="s">
+    <row r="2" spans="2:11" s="127" customFormat="1" ht="19.5">
+      <c r="B2" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="154" t="s">
+      <c r="E2" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="154" t="s">
+      <c r="I2" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="154" t="s">
+      <c r="J2" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="155" t="s">
+      <c r="K2" s="126" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4759,10 +4759,10 @@
       <c r="F3" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="148"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:11" ht="66">
@@ -4781,13 +4781,13 @@
       <c r="F4" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="149"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="2:11" ht="33">
       <c r="B5" s="67">
@@ -4802,16 +4802,16 @@
       <c r="E5" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="149"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="2:11" ht="33">
       <c r="B6" s="67">
@@ -4826,18 +4826,18 @@
       <c r="E6" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="151" t="s">
+      <c r="G6" s="122" t="s">
         <v>170</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="149"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="67">
@@ -4852,119 +4852,119 @@
       <c r="E7" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="122" t="s">
         <v>167</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="K7" s="149"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="157">
+      <c r="B8" s="131">
         <v>1.5</v>
       </c>
-      <c r="C8" s="160">
+      <c r="C8" s="134">
         <v>1029</v>
       </c>
-      <c r="D8" s="163">
+      <c r="D8" s="137">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="150" t="s">
+      <c r="F8" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="151" t="s">
+      <c r="G8" s="122" t="s">
         <v>171</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="149"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="158"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="150" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="122" t="s">
         <v>184</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="149"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:11" ht="66">
-      <c r="B10" s="158"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="150" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="151" t="s">
+      <c r="H10" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="J10" s="167" t="s">
+      <c r="J10" s="129" t="s">
         <v>195</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="66">
-      <c r="B11" s="158"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="150" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="151" t="s">
+      <c r="H11" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="166" t="s">
+      <c r="I11" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="168" t="s">
+      <c r="J11" s="130" t="s">
         <v>195</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="33">
-      <c r="B12" s="159"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="150" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="151" t="s">
+      <c r="H12" s="122" t="s">
         <v>198</v>
       </c>
       <c r="I12" s="3"/>
@@ -4979,8 +4979,8 @@
       <c r="D13" s="71"/>
       <c r="E13" s="45"/>
       <c r="F13" s="84"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
@@ -4991,7 +4991,7 @@
       <c r="D14" s="81"/>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
-      <c r="G14" s="143"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="82"/>
     </row>
     <row r="15" spans="2:11">
@@ -5040,38 +5040,38 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
     </row>
     <row r="3" spans="2:14" ht="135" customHeight="1" thickBot="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1">
       <c r="B4" s="23" t="s">
@@ -5287,7 +5287,7 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="85" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="55">
@@ -5320,10 +5320,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L9" s="115">
+      <c r="L9" s="86">
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="86">
         <v>6</v>
       </c>
       <c r="N9" s="58" t="s">
@@ -5457,7 +5457,7 @@
       <c r="N12" s="58"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="85" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="55">
@@ -5490,10 +5490,10 @@
         <f t="shared" ref="K13:K14" si="4">I13</f>
         <v>8</v>
       </c>
-      <c r="L13" s="115">
+      <c r="L13" s="86">
         <v>0</v>
       </c>
-      <c r="M13" s="115">
+      <c r="M13" s="86">
         <v>10</v>
       </c>
       <c r="N13" s="58" t="s">
@@ -5630,7 +5630,7 @@
       <c r="N16" s="58"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="85" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="55">
@@ -5663,10 +5663,10 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L17" s="115">
+      <c r="L17" s="86">
         <v>0</v>
       </c>
-      <c r="M17" s="115">
+      <c r="M17" s="86">
         <v>20</v>
       </c>
       <c r="N17" s="58"/>
@@ -5905,22 +5905,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:6" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="2:6" ht="17.25" thickBot="1">
       <c r="B4" s="9" t="s">
@@ -6048,22 +6048,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:6" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="2:6" ht="123.75" customHeight="1" thickBot="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="20" t="s">
@@ -6273,22 +6273,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:6" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="2:6" ht="118.5" customHeight="1" thickBot="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="20" t="s">
@@ -6493,7 +6493,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6509,26 +6509,26 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="2:8" ht="199.5" customHeight="1" thickBot="1">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="20" t="s">
@@ -6543,10 +6543,10 @@
       <c r="E4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="88" t="s">
         <v>163</v>
       </c>
       <c r="H4" s="28" t="s">
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="91" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -6566,10 +6566,10 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="89">
         <v>500</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="89">
         <v>250</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="92" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -6589,16 +6589,16 @@
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="98">
         <v>1000</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="89">
         <v>500</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="92" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -6610,16 +6610,16 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="98">
         <v>1500</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="89">
         <v>750</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="92" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6631,16 +6631,16 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="98">
         <v>2000</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="89">
         <v>1000</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="93" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6652,10 +6652,10 @@
       <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="99">
         <v>3000</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="90">
         <v>1500</v>
       </c>
       <c r="H9" s="6"/>
@@ -6688,24 +6688,24 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="2:7" ht="139.5" customHeight="1">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="157"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="33" t="s">
@@ -6728,7 +6728,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="91" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="31">
@@ -6748,7 +6748,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="92" t="s">
         <v>147</v>
       </c>
       <c r="C6" s="31">
@@ -6768,7 +6768,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="92" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="31">
@@ -6788,7 +6788,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="93" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="36">
@@ -6824,7 +6824,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6834,20 +6834,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="27" thickBot="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="87"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="2:5" ht="57.75" customHeight="1" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="38" t="s">
@@ -6864,7 +6864,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="85" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="72" t="s">
@@ -6878,7 +6878,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="94" t="s">
         <v>146</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -6892,7 +6892,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="94" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="72" t="s">
@@ -6906,7 +6906,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="95" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -6948,16 +6948,16 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="33">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="112">
         <v>30</v>
       </c>
     </row>
@@ -6976,30 +6976,30 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="33">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="141">
+      <c r="E13" s="112">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="147">
+      <c r="E14" s="118">
         <v>100</v>
       </c>
     </row>
@@ -7018,16 +7018,16 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="140" t="s">
+      <c r="D16" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="141">
+      <c r="E16" s="112">
         <v>500</v>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7078,30 +7078,30 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:10" ht="26.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="2:10" ht="104.25" customHeight="1" thickBot="1">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="38" t="s">
@@ -7487,23 +7487,23 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="103">
+        <v>5</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104">
         <v>2</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133">
-        <v>2</v>
-      </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7515,37 +7515,37 @@
         <v>179</v>
       </c>
       <c r="D20" s="83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
       <c r="H20" s="83"/>
-      <c r="I20" s="125">
+      <c r="I20" s="96">
         <v>2</v>
       </c>
-      <c r="J20" s="126" t="s">
+      <c r="J20" s="97" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="135">
+      <c r="D21" s="106">
         <v>2</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136">
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107">
         <v>2</v>
       </c>
-      <c r="J21" s="137" t="s">
+      <c r="J21" s="108" t="s">
         <v>91</v>
       </c>
     </row>
